--- a/data/trans_bre/P16A18-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A18-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/trans_bre/P16A18-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1308,14 +1308,114 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
